--- a/auswertung/POLO/POLO_test_FM.xlsx
+++ b/auswertung/POLO/POLO_test_FM.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="18915" windowHeight="11820"/>
+    <workbookView xWindow="120" yWindow="30" windowWidth="28515" windowHeight="13350"/>
   </bookViews>
   <sheets>
     <sheet name="POLO_test_FM" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="44">
   <si>
     <t>model</t>
   </si>
@@ -140,6 +140,12 @@
   </si>
   <si>
     <t>als</t>
+  </si>
+  <si>
+    <t>MODEL MANUFACTURER</t>
+  </si>
+  <si>
+    <t>MODEL MANUFACTURER ENGINE_TYPE_GROUP</t>
   </si>
 </sst>
 </file>
@@ -968,36 +974,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE32"/>
+  <dimension ref="A1:AE38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="Y30" sqref="Y30:Y32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="2.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="42.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="3.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8" bestFit="1" customWidth="1"/>
-    <col min="20" max="30" width="12" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="8.42578125" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -4033,6 +4016,576 @@
         <v>0.75598455598455605</v>
       </c>
       <c r="AE32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>30</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>30</v>
+      </c>
+      <c r="D33">
+        <v>1600</v>
+      </c>
+      <c r="E33">
+        <v>0.8</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33" t="s">
+        <v>42</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0.5</v>
+      </c>
+      <c r="L33" t="s">
+        <v>32</v>
+      </c>
+      <c r="M33" t="s">
+        <v>33</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>33</v>
+      </c>
+      <c r="R33">
+        <v>876.03307297297295</v>
+      </c>
+      <c r="S33">
+        <v>611.29</v>
+      </c>
+      <c r="T33">
+        <v>0.16756756756756799</v>
+      </c>
+      <c r="U33">
+        <v>0.252895752895753</v>
+      </c>
+      <c r="V33">
+        <v>0.33745173745173701</v>
+      </c>
+      <c r="W33">
+        <v>0.418146718146718</v>
+      </c>
+      <c r="X33">
+        <v>0.37922523856775903</v>
+      </c>
+      <c r="Y33">
+        <v>0.25105675118853799</v>
+      </c>
+      <c r="Z33">
+        <v>0.217760617760618</v>
+      </c>
+      <c r="AA33">
+        <v>0.41544401544401499</v>
+      </c>
+      <c r="AB33">
+        <v>0.57027027027027</v>
+      </c>
+      <c r="AC33">
+        <v>0.68185328185328198</v>
+      </c>
+      <c r="AD33">
+        <v>0.76486486486486505</v>
+      </c>
+      <c r="AE33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>30</v>
+      </c>
+      <c r="B34" t="s">
+        <v>31</v>
+      </c>
+      <c r="C34">
+        <v>30</v>
+      </c>
+      <c r="D34">
+        <v>1600</v>
+      </c>
+      <c r="E34">
+        <v>0.8</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34" t="s">
+        <v>42</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>1</v>
+      </c>
+      <c r="K34">
+        <v>0.5</v>
+      </c>
+      <c r="L34" t="s">
+        <v>32</v>
+      </c>
+      <c r="M34" t="s">
+        <v>33</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>33</v>
+      </c>
+      <c r="R34">
+        <v>872.39860231660202</v>
+      </c>
+      <c r="S34">
+        <v>604.39499999999998</v>
+      </c>
+      <c r="T34">
+        <v>0.16911196911196899</v>
+      </c>
+      <c r="U34">
+        <v>0.25675675675675702</v>
+      </c>
+      <c r="V34">
+        <v>0.34247104247104199</v>
+      </c>
+      <c r="W34">
+        <v>0.43320463320463298</v>
+      </c>
+      <c r="X34">
+        <v>0.37587239591344301</v>
+      </c>
+      <c r="Y34">
+        <v>0.246081482251259</v>
+      </c>
+      <c r="Z34">
+        <v>0.213513513513514</v>
+      </c>
+      <c r="AA34">
+        <v>0.42123552123552099</v>
+      </c>
+      <c r="AB34">
+        <v>0.57915057915057899</v>
+      </c>
+      <c r="AC34">
+        <v>0.69189189189189204</v>
+      </c>
+      <c r="AD34">
+        <v>0.77915057915057895</v>
+      </c>
+      <c r="AE34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>30</v>
+      </c>
+      <c r="B35" t="s">
+        <v>31</v>
+      </c>
+      <c r="C35">
+        <v>30</v>
+      </c>
+      <c r="D35">
+        <v>1600</v>
+      </c>
+      <c r="E35">
+        <v>0.8</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35" t="s">
+        <v>42</v>
+      </c>
+      <c r="I35">
+        <v>1</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>0.5</v>
+      </c>
+      <c r="L35" t="s">
+        <v>32</v>
+      </c>
+      <c r="M35" t="s">
+        <v>33</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>33</v>
+      </c>
+      <c r="R35">
+        <v>899.38302200772205</v>
+      </c>
+      <c r="S35">
+        <v>643.86500000000001</v>
+      </c>
+      <c r="T35">
+        <v>0.157142857142857</v>
+      </c>
+      <c r="U35">
+        <v>0.238996138996139</v>
+      </c>
+      <c r="V35">
+        <v>0.32934362934362899</v>
+      </c>
+      <c r="W35">
+        <v>0.403474903474904</v>
+      </c>
+      <c r="X35">
+        <v>0.38203571410114101</v>
+      </c>
+      <c r="Y35">
+        <v>0.25882280837807198</v>
+      </c>
+      <c r="Z35">
+        <v>0.1996138996139</v>
+      </c>
+      <c r="AA35">
+        <v>0.396138996138996</v>
+      </c>
+      <c r="AB35">
+        <v>0.55868725868725899</v>
+      </c>
+      <c r="AC35">
+        <v>0.67799227799227801</v>
+      </c>
+      <c r="AD35">
+        <v>0.76023166023166</v>
+      </c>
+      <c r="AE35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>30</v>
+      </c>
+      <c r="B36" t="s">
+        <v>31</v>
+      </c>
+      <c r="C36">
+        <v>30</v>
+      </c>
+      <c r="D36">
+        <v>1600</v>
+      </c>
+      <c r="E36">
+        <v>0.8</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36" t="s">
+        <v>43</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>0.5</v>
+      </c>
+      <c r="L36" t="s">
+        <v>32</v>
+      </c>
+      <c r="M36" t="s">
+        <v>33</v>
+      </c>
+      <c r="N36">
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>33</v>
+      </c>
+      <c r="R36">
+        <v>873.98619536679496</v>
+      </c>
+      <c r="S36">
+        <v>616.27</v>
+      </c>
+      <c r="T36">
+        <v>0.16177606177606199</v>
+      </c>
+      <c r="U36">
+        <v>0.248648648648649</v>
+      </c>
+      <c r="V36">
+        <v>0.33667953667953698</v>
+      </c>
+      <c r="W36">
+        <v>0.41274131274131298</v>
+      </c>
+      <c r="X36">
+        <v>0.373952288967767</v>
+      </c>
+      <c r="Y36">
+        <v>0.25124196038620999</v>
+      </c>
+      <c r="Z36">
+        <v>0.206177606177606</v>
+      </c>
+      <c r="AA36">
+        <v>0.422393822393822</v>
+      </c>
+      <c r="AB36">
+        <v>0.57258687258687302</v>
+      </c>
+      <c r="AC36">
+        <v>0.67953667953667996</v>
+      </c>
+      <c r="AD36">
+        <v>0.76718146718146696</v>
+      </c>
+      <c r="AE36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>30</v>
+      </c>
+      <c r="B37" t="s">
+        <v>31</v>
+      </c>
+      <c r="C37">
+        <v>30</v>
+      </c>
+      <c r="D37">
+        <v>1600</v>
+      </c>
+      <c r="E37">
+        <v>0.8</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37" t="s">
+        <v>42</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0.5</v>
+      </c>
+      <c r="L37" t="s">
+        <v>35</v>
+      </c>
+      <c r="M37" t="s">
+        <v>33</v>
+      </c>
+      <c r="N37">
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>33</v>
+      </c>
+      <c r="R37">
+        <v>877.10874710424696</v>
+      </c>
+      <c r="S37">
+        <v>634.69500000000005</v>
+      </c>
+      <c r="T37">
+        <v>0.16254826254826299</v>
+      </c>
+      <c r="U37">
+        <v>0.244787644787645</v>
+      </c>
+      <c r="V37">
+        <v>0.31776061776061798</v>
+      </c>
+      <c r="W37">
+        <v>0.39382239382239398</v>
+      </c>
+      <c r="X37">
+        <v>0.37170672371104302</v>
+      </c>
+      <c r="Y37">
+        <v>0.25753573174842898</v>
+      </c>
+      <c r="Z37">
+        <v>0.20501930501930499</v>
+      </c>
+      <c r="AA37">
+        <v>0.39266409266409302</v>
+      </c>
+      <c r="AB37">
+        <v>0.55714285714285705</v>
+      </c>
+      <c r="AC37">
+        <v>0.68378378378378402</v>
+      </c>
+      <c r="AD37">
+        <v>0.769111969111969</v>
+      </c>
+      <c r="AE37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>30</v>
+      </c>
+      <c r="B38" t="s">
+        <v>31</v>
+      </c>
+      <c r="C38">
+        <v>30</v>
+      </c>
+      <c r="D38">
+        <v>1600</v>
+      </c>
+      <c r="E38">
+        <v>0.8</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38" t="s">
+        <v>43</v>
+      </c>
+      <c r="I38">
+        <v>1</v>
+      </c>
+      <c r="J38">
+        <v>1</v>
+      </c>
+      <c r="K38">
+        <v>0.5</v>
+      </c>
+      <c r="L38" t="s">
+        <v>32</v>
+      </c>
+      <c r="M38" t="s">
+        <v>33</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>33</v>
+      </c>
+      <c r="R38">
+        <v>1083.4760559845599</v>
+      </c>
+      <c r="S38">
+        <v>732.82500000000005</v>
+      </c>
+      <c r="T38">
+        <v>0.14942084942084899</v>
+      </c>
+      <c r="U38">
+        <v>0.22393822393822399</v>
+      </c>
+      <c r="V38">
+        <v>0.29652509652509701</v>
+      </c>
+      <c r="W38">
+        <v>0.36563706563706599</v>
+      </c>
+      <c r="X38">
+        <v>0.49033796455518802</v>
+      </c>
+      <c r="Y38">
+        <v>0.29839036653561102</v>
+      </c>
+      <c r="Z38">
+        <v>0.182625482625483</v>
+      </c>
+      <c r="AA38">
+        <v>0.35868725868725898</v>
+      </c>
+      <c r="AB38">
+        <v>0.50386100386100396</v>
+      </c>
+      <c r="AC38">
+        <v>0.62432432432432405</v>
+      </c>
+      <c r="AD38">
+        <v>0.71389961389961398</v>
+      </c>
+      <c r="AE38">
         <v>0</v>
       </c>
     </row>
